--- a/Conteudo/Somativa/Somativa Criterios_Avaliativos (version 1).xlsx
+++ b/Conteudo/Somativa/Somativa Criterios_Avaliativos (version 1).xlsx
@@ -1,45 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1093601\Documents\SamuelCosta\BackEnd-2Termo\Conteudo\Somativa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1093601\Documents\BackEnd-2Termo\Conteudo\Somativa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAA4E59-D1BF-4F9F-A32B-BAF56851000F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E59CE-5166-4B53-9208-1EEC0CCD4076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lucas Terminiello" sheetId="21" r:id="rId1"/>
-    <sheet name="Gabriel Gomes" sheetId="20" r:id="rId2"/>
-    <sheet name="Arthur Araujo" sheetId="19" r:id="rId3"/>
-    <sheet name="Gabriel Ramos" sheetId="18" r:id="rId4"/>
-    <sheet name="Miguel Massane" sheetId="17" r:id="rId5"/>
-    <sheet name="Diogo Scherrer" sheetId="16" r:id="rId6"/>
-    <sheet name="Henrique Delgado" sheetId="15" r:id="rId7"/>
-    <sheet name="Murilo Almeida" sheetId="14" r:id="rId8"/>
-    <sheet name="Gabriel Bernardi" sheetId="13" r:id="rId9"/>
-    <sheet name="Murilo Coletta" sheetId="12" r:id="rId10"/>
-    <sheet name="Kayque Costa" sheetId="11" r:id="rId11"/>
-    <sheet name="Gabriel Soares" sheetId="10" r:id="rId12"/>
-    <sheet name="Henrique Motta" sheetId="9" r:id="rId13"/>
-    <sheet name="Gabriel Xavier" sheetId="8" r:id="rId14"/>
-    <sheet name="Filippo Delosso" sheetId="7" r:id="rId15"/>
-    <sheet name="Matheus Malaman" sheetId="1" r:id="rId16"/>
-    <sheet name="Joel Neto" sheetId="3" r:id="rId17"/>
-    <sheet name="João Victor" sheetId="4" r:id="rId18"/>
-    <sheet name="Guilherme Bernardi" sheetId="5" r:id="rId19"/>
-    <sheet name="Gabriel Ferreira" sheetId="6" r:id="rId20"/>
+    <sheet name="Otavio Saturnino" sheetId="27" r:id="rId1"/>
+    <sheet name="Daniel Charlo" sheetId="26" r:id="rId2"/>
+    <sheet name="Beatriz Santos" sheetId="25" r:id="rId3"/>
+    <sheet name="Luiza Takemi" sheetId="24" r:id="rId4"/>
+    <sheet name="Victor Hugo" sheetId="23" r:id="rId5"/>
+    <sheet name="Hayron Oliveira (Lab 15A)" sheetId="22" r:id="rId6"/>
+    <sheet name="Lucas Terminiello" sheetId="21" r:id="rId7"/>
+    <sheet name="Gabriel Gomes" sheetId="20" r:id="rId8"/>
+    <sheet name="Arthur Araujo" sheetId="19" r:id="rId9"/>
+    <sheet name="Gabriel Ramos" sheetId="18" r:id="rId10"/>
+    <sheet name="Miguel Massane" sheetId="17" r:id="rId11"/>
+    <sheet name="Diogo Scherrer" sheetId="16" r:id="rId12"/>
+    <sheet name="Henrique Delgado" sheetId="15" r:id="rId13"/>
+    <sheet name="Murilo Almeida" sheetId="14" r:id="rId14"/>
+    <sheet name="Gabriel Bernardi" sheetId="13" r:id="rId15"/>
+    <sheet name="Murilo Coletta" sheetId="12" r:id="rId16"/>
+    <sheet name="Kayque Costa" sheetId="11" r:id="rId17"/>
+    <sheet name="Gabriel Soares" sheetId="10" r:id="rId18"/>
+    <sheet name="Henrique Motta" sheetId="9" r:id="rId19"/>
+    <sheet name="Gabriel Xavier" sheetId="8" r:id="rId20"/>
+    <sheet name="Filippo Delosso" sheetId="7" r:id="rId21"/>
+    <sheet name="Matheus Malaman" sheetId="1" r:id="rId22"/>
+    <sheet name="Joel Neto" sheetId="3" r:id="rId23"/>
+    <sheet name="João Victor" sheetId="4" r:id="rId24"/>
+    <sheet name="Guilherme Bernardi" sheetId="5" r:id="rId25"/>
+    <sheet name="Gabriel Ferreira" sheetId="6" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="37">
   <si>
     <t>Categoria</t>
   </si>
@@ -147,6 +153,9 @@
   </si>
   <si>
     <t>Feedback e confirmação visual</t>
+  </si>
+  <si>
+    <t>Critério descontado por "Plágio"</t>
   </si>
 </sst>
 </file>
@@ -701,22 +710,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7C921E-E350-47B2-A78B-1C2809024318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B63157F-7B49-402A-AA46-7CFB4C419183}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -728,7 +738,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -740,7 +750,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -752,7 +762,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,7 +774,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -776,7 +786,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -788,7 +798,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -800,7 +810,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -810,11 +820,9 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -828,7 +836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -840,7 +848,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -852,7 +860,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -864,7 +872,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -874,23 +882,21 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -902,7 +908,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -914,7 +920,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -926,7 +932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -938,7 +944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -950,19 +956,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -979,22 +985,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99805EE-E121-4943-A10A-EEC966317ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E994367-5168-42FA-8A58-52D28EEB1362}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1012,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1018,7 +1024,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1036,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1048,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1054,7 +1060,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1072,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1078,7 +1084,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1096,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1122,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +1134,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1138,9 +1144,11 @@
       <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1152,19 +1160,19 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -1174,11 +1182,9 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +1196,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -1226,21 +1232,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -1257,22 +1261,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7735BB6A-B7D5-49B9-93A6-3D72DB46E9D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C64DA90-3877-4C57-95F6-E89D3B5A27A8}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1288,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1296,7 +1300,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1312,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1324,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1336,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1348,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1360,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1372,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1378,11 +1382,9 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1394,7 +1396,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1408,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1418,7 +1420,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1430,19 +1432,19 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -1454,7 +1456,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1468,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1478,7 +1480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1490,31 +1492,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -1531,22 +1537,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6C7524-B1CB-4256-ACDB-4A7C28E95806}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E57BBE8-AF96-411F-BF32-ADEB6D89B15C}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1564,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1576,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1588,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1594,7 +1600,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +1612,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1618,7 +1624,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1636,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1640,9 +1646,11 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1662,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1674,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1686,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1688,11 +1696,9 @@
       <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1702,9 +1708,11 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1724,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1736,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -1740,7 +1748,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1752,7 +1760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1764,7 +1772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -1805,22 +1813,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB95604-E6A2-48D8-8A7D-5BBDA7879EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4FE644-CB73-4007-A323-5018B747F158}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1840,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1852,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1864,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1868,7 +1876,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1880,7 +1888,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1892,7 +1900,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1904,7 +1912,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +1924,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1926,9 +1934,11 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1940,7 +1950,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1962,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1964,7 +1974,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1976,7 +1986,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1986,11 +1996,9 @@
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +2010,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2012,11 +2020,9 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -2052,19 +2058,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -2081,22 +2089,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7EBE02-9D7D-4B82-8B0C-DD92BA61CD95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0117F2-E72E-4C2F-A59A-180C892F5231}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2116,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2118,11 +2126,9 @@
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2140,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2152,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2164,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2170,7 +2176,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2182,7 +2188,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2194,7 +2200,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2204,11 +2210,9 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2220,7 +2224,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2232,7 +2236,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2244,7 +2248,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -2256,19 +2260,19 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -2278,9 +2282,11 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2292,31 +2298,31 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -2328,19 +2334,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -2357,22 +2363,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C6155-4272-42FD-8D1A-2DDE908A96E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7588FBD-0537-4749-9A43-6E57A1361FFB}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2390,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2402,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2408,7 +2414,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2420,7 +2426,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2438,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2444,7 +2450,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2456,7 +2462,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2466,11 +2472,9 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2500,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2508,19 +2512,19 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -2530,35 +2534,33 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2568,9 +2570,11 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -2582,7 +2586,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -2594,33 +2598,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -2637,22 +2641,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99805EE-E121-4943-A10A-EEC966317ABE}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2664,7 +2668,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2676,7 +2680,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2688,7 +2692,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2700,7 +2704,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2712,7 +2716,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2724,7 +2728,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +2740,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2748,7 +2752,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2758,9 +2762,11 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2772,7 +2778,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2784,7 +2790,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2796,7 +2802,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -2808,19 +2814,19 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -2830,9 +2836,11 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2844,7 +2852,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -2856,7 +2864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -2868,7 +2876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -2894,7 +2902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -2911,22 +2919,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1923962E-43CD-481C-BC42-5CD697178A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7735BB6A-B7D5-49B9-93A6-3D72DB46E9D6}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2938,7 +2946,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2950,7 +2958,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2962,7 +2970,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2974,7 +2982,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2986,7 +2994,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2998,7 +3006,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -3010,7 +3018,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -3022,7 +3030,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -3032,9 +3040,11 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3046,7 +3056,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -3058,7 +3068,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3070,7 +3080,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -3082,19 +3092,19 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -3106,7 +3116,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3118,7 +3128,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -3130,19 +3140,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -3154,19 +3164,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -3183,22 +3193,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E159366E-9179-42C3-A3FD-A38989C97C4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6C7524-B1CB-4256-ACDB-4A7C28E95806}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3220,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3222,7 +3232,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3234,7 +3244,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3246,7 +3256,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3258,7 +3268,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -3270,7 +3280,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -3282,7 +3292,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -3294,7 +3304,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -3306,7 +3316,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3318,7 +3328,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3340,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3340,9 +3350,11 @@
       <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -3354,7 +3366,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -3366,7 +3378,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -3378,7 +3390,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3390,31 +3402,31 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -3426,7 +3438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -3438,7 +3450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -3455,22 +3467,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DEF636-4A7A-4E53-B5BE-15D4AA3E6BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB95604-E6A2-48D8-8A7D-5BBDA7879EE8}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3494,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3494,7 +3506,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3506,7 +3518,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3518,7 +3530,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3530,7 +3542,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -3542,7 +3554,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -3554,7 +3566,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -3566,7 +3578,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -3578,7 +3590,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3590,7 +3602,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -3602,7 +3614,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3614,31 +3626,33 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -3650,7 +3664,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3660,9 +3674,11 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -3674,7 +3690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -3686,7 +3702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -3698,21 +3714,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -3729,22 +3743,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F657585-8179-4FFD-AB91-215583C42E3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500A031E-6E2D-4817-8D57-36D395C4CB4D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3756,7 +3771,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3768,7 +3783,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3780,7 +3795,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3792,7 +3807,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3804,7 +3819,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -3816,7 +3831,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -3828,7 +3843,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -3840,7 +3855,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -3854,7 +3869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3866,7 +3881,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -3878,7 +3893,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3890,7 +3905,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -3904,7 +3919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -3916,7 +3931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +3943,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3940,7 +3955,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -3952,19 +3967,19 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -3976,7 +3991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -3990,7 +4005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -4007,6 +4022,1654 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7EBE02-9D7D-4B82-8B0C-DD92BA61CD95}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C6155-4272-42FD-8D1A-2DDE908A96E7}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1923962E-43CD-481C-BC42-5CD697178A8F}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E159366E-9179-42C3-A3FD-A38989C97C4B}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DEF636-4A7A-4E53-B5BE-15D4AA3E6BD7}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317DB1F2-0F42-4E15-9CBE-D97D03D0BB16}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -4014,15 +5677,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4034,7 +5697,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4046,7 +5709,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4058,7 +5721,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4070,7 +5733,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -4082,7 +5745,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -4094,7 +5757,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -4106,7 +5769,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -4118,7 +5781,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -4132,7 +5795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4144,7 +5807,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -4156,7 +5819,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -4168,7 +5831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -4180,7 +5843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -4192,7 +5855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -4204,7 +5867,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -4216,7 +5879,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -4228,7 +5891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -4240,7 +5903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -4252,7 +5915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -4264,7 +5927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -4281,22 +5944,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360E5E79-9E47-4D6E-8DCA-8786A50781EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8761148F-0E0D-4745-BA6D-D50498B2136D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +5972,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4320,7 +5984,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4332,7 +5996,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4344,7 +6008,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -4356,7 +6020,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -4366,11 +6030,9 @@
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -4382,7 +6044,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -4392,11 +6054,9 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -4406,11 +6066,9 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4422,7 +6080,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -4432,9 +6090,11 @@
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -4448,19 +6108,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -4472,7 +6134,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -4482,11 +6144,9 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -4498,7 +6158,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -4510,19 +6170,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -4534,19 +6194,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -4563,22 +6225,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E994367-5168-42FA-8A58-52D28EEB1362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796C9FB8-4C75-4DE0-AFF3-A28AB4B37DA2}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4590,7 +6253,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4602,7 +6265,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4614,7 +6277,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4626,7 +6289,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -4638,7 +6301,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -4650,7 +6313,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -4662,7 +6325,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -4674,7 +6337,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -4684,11 +6347,9 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4700,7 +6361,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -4710,9 +6371,11 @@
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -4726,7 +6389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -4736,9 +6399,11 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -4748,9 +6413,11 @@
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -4762,7 +6429,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -4774,7 +6441,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -4786,7 +6453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -4798,7 +6465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -4810,19 +6477,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -4839,22 +6508,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C64DA90-3877-4C57-95F6-E89D3B5A27A8}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AD26F7-F9AD-4C3D-AC4B-2688EC7449FC}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4866,7 +6536,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4876,9 +6546,14 @@
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4890,7 +6565,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4902,7 +6577,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -4914,7 +6589,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -4926,7 +6601,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -4938,7 +6613,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -4950,7 +6625,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -4962,7 +6637,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4974,7 +6649,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -4984,9 +6659,11 @@
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -4998,7 +6675,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -5010,7 +6687,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -5020,9 +6697,11 @@
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -5034,7 +6713,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -5046,7 +6725,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -5058,7 +6737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -5070,21 +6749,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -5098,7 +6775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -5115,22 +6792,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E57BBE8-AF96-411F-BF32-ADEB6D89B15C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2E5A30-ABBE-4740-8277-18885B320A0C}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D20" sqref="C2:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5142,191 +6819,157 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -5334,11 +6977,9 @@
         <v>28</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -5346,11 +6987,9 @@
         <v>29</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -5358,11 +6997,9 @@
         <v>14</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -5370,11 +7007,9 @@
         <v>31</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -5391,22 +7026,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4FE644-CB73-4007-A323-5018B747F158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7C921E-E350-47B2-A78B-1C2809024318}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5418,7 +7053,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5430,7 +7065,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -5442,7 +7077,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -5454,7 +7089,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -5466,7 +7101,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -5478,7 +7113,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -5490,7 +7125,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -5500,9 +7135,11 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -5516,7 +7153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5528,7 +7165,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -5540,7 +7177,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -5552,7 +7189,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -5562,9 +7199,11 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -5576,7 +7215,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -5588,7 +7227,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -5600,7 +7239,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -5612,7 +7251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -5624,7 +7263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -5636,7 +7275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -5646,11 +7285,9 @@
       <c r="C20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -5667,22 +7304,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0117F2-E72E-4C2F-A59A-180C892F5231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F657585-8179-4FFD-AB91-215583C42E3E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5694,7 +7331,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5706,7 +7343,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -5718,7 +7355,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -5730,7 +7367,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -5742,7 +7379,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -5754,7 +7391,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -5766,7 +7403,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -5778,7 +7415,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -5788,9 +7425,11 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5802,7 +7441,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -5814,7 +7453,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -5826,7 +7465,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -5836,9 +7475,11 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -5850,7 +7491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -5860,11 +7501,9 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -5876,7 +7515,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -5888,19 +7527,19 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -5912,19 +7551,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
@@ -5941,22 +7582,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7588FBD-0537-4749-9A43-6E57A1361FFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360E5E79-9E47-4D6E-8DCA-8786A50781EC}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5968,7 +7609,7 @@
       </c>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5980,7 +7621,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -5992,7 +7633,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -6004,7 +7645,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -6016,7 +7657,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -6026,9 +7667,11 @@
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -6040,7 +7683,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -6050,9 +7693,11 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -6066,7 +7711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6078,7 +7723,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -6090,7 +7735,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -6100,21 +7745,23 @@
       <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -6126,7 +7773,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -6136,9 +7783,11 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -6148,23 +7797,21 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -6176,21 +7823,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -6202,7 +7847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
